--- a/data/cosmetic_momoko_brand.xlsx
+++ b/data/cosmetic_momoko_brand.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fish/Desktop/CODE/Python/batch-code-checker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fish/Desktop/CODE/Python/batch-code-checker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F41CED-9892-EA47-9BD6-DDC454547EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B3A5DF-1A56-3E42-AAE4-351B97EE83E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,7 +908,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Brand 中文</t>
+    <t>Brand Chinese</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:B176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
